--- a/InputData/fuels/BFTRbF/BAU Fuel Tax Rate by Fuel.xlsx
+++ b/InputData/fuels/BFTRbF/BAU Fuel Tax Rate by Fuel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>BFTRbF BAU Fuel Tax Rate by Fuel</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Since we are taking a ratio of dollar values, we do not need to convert from 2013 to 2012 dollars.</t>
+  </si>
+  <si>
+    <t>geothermal (does not use fuel)</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -3415,72 +3418,72 @@
     </row>
     <row r="38" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
     </row>
     <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3506,7 +3509,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5215,6 +5218,98 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
